--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>827687.0434245993</v>
+        <v>822973.1324702352</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516696</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10408923.44367689</v>
+        <v>10406563.52611521</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>35.37436164083051</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4360853739818</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>132.3187953056055</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>35.13685922633127</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.18239748784904</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>273.0891598015559</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>203.0747586157685</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>375.670444700402</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>100.8996439579079</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1029,7 +1029,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>22.78476950183229</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.30772385275628</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,22 +1181,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>157.6926523830316</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>223.1191315493051</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>319.8444572927816</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40.78297506860792</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>125.9169900252249</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>171.1886243209706</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>54.22076354052889</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>61.58293163069467</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>93.16084888546051</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799149</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380453</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,16 +2767,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954283</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568062</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291036</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838915</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828928</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696767</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162031</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043176</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945460001</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643973</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931884</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908611</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147825</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805029</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922222</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367814</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920546</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404474</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480635</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947761</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325497</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325497</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
         <v>90.90562710059311</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1774.288224026355</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>1774.288224026355</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D2" t="n">
-        <v>1738.556545601274</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477965</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475505</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>673.8990329354916</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354916</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572954</v>
+        <v>1572.340732912005</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465282</v>
+        <v>2012.380333804333</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596804</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737752</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737752</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737752</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737752</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737752</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737752</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737752</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.861642534786</v>
+        <v>574.3337716287374</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948782</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163586</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272463</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103781</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822426</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284347</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>158.769525982835</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>642.3356118811482</v>
       </c>
       <c r="M3" t="n">
-        <v>1402.159093172768</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="N3" t="n">
-        <v>1940.417878182862</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182862</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182862</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635817</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535686</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734594</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413236</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416942</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757474</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>510.1661356715438</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C4" t="n">
-        <v>510.1661356715438</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5330225740586</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9742104332611</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F4" t="n">
-        <v>198.9742104332611</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9742104332611</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>535.6029008107853</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>535.6029008107853</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="W4" t="n">
-        <v>535.6029008107853</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="X4" t="n">
-        <v>535.6029008107853</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="Y4" t="n">
-        <v>535.6029008107853</v>
+        <v>41.50324675633844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1970.276500964325</v>
+        <v>1537.64974772626</v>
       </c>
       <c r="C5" t="n">
-        <v>1577.100999467255</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>1577.100999467255</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.635903810284</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402614</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282644</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475505</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>180.5787412169628</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>180.5787412169628</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>673.8990329354916</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354916</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572954</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465282</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596804</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023274</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964325</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964325</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964325</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964325</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.276500964325</v>
+        <v>1537.64974772626</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.276500964325</v>
+        <v>1537.64974772626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.276500964325</v>
+        <v>1537.64974772626</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.861642534786</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948782</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163586</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272463</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103781</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822426</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284347</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585116</v>
+        <v>874.845071428253</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182862</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182862</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182862</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635817</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535686</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734594</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045875</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416942</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757474</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="V7" t="n">
-        <v>784.0184448639509</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="W7" t="n">
-        <v>500.6880427951286</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781117</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475505</v>
+        <v>218.9763418905753</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.406961705009</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1725.23146020794</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.142036303753</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>553.7554333537225</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>270.4250312849002</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>270.4250312849002</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1331.657796418324</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1331.657796418324</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>800.8136995685214</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="F11" t="n">
-        <v>655.772383357234</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2601.909790723</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2302.707030837481</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>1985.050700916732</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1660.356266983527</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>472.8495292029535</v>
+        <v>103.3140520158407</v>
       </c>
       <c r="C13" t="n">
-        <v>472.8495292029535</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029535</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083499</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675166</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118218</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138157</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840482</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614195</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X13" t="n">
-        <v>713.4501515614195</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y13" t="n">
-        <v>586.2612727480609</v>
+        <v>216.7257955609481</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880364</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>828.6901857016489</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654569</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3051.18793718504</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3051.18793718504</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>3051.18793718504</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2751.985177299521</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.328847378772</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445567</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>547.9336937950832</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>449.5248510072664</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>387.3198695621203</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675166</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675166</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>872.879564262819</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401906</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X16" t="n">
-        <v>661.3454373401906</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y16" t="n">
-        <v>661.3454373401906</v>
+        <v>273.9397140370398</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5832,19 +5832,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,19 +5911,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>806.619390679759</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,13 +6014,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,16 +6151,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960405</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343045</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>755.8323718938493</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6263,13 +6263,13 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6400,34 +6400,34 @@
         <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286451</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388008</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662627</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
         <v>2893.292664647883</v>
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222133</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463679</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.89878230571</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230776</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189326</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076171</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394301</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2404.684126952456</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038545</v>
+        <v>2844.723727844785</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897137</v>
+        <v>3192.911219976306</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038085</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038085</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761244</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394127</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291779</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.5154531542</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282492</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076171</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965148</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918683</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237473</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123141</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546514</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834612</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431951</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076171</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067576</v>
+        <v>225.4160927170969</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076273</v>
+        <v>389.5437325908966</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729613</v>
+        <v>575.8353109291606</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.83739383124</v>
+        <v>870.6770655353528</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872948</v>
+        <v>1145.033953152044</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376597</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746648</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308589</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420503</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518101</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395547</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000967</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124441</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584517</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099308</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924213</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129427</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188067</v>
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,25 +7011,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860693</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072653</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960397</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343037</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879416</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222399</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960397</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343037</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879416</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296496</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7500,7 +7500,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,19 +7576,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655136</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7813,19 +7813,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>427.4108136832945</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>213.7176129102069</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463310016</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>539.0974448753182</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886047</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.1475973587176</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>300.2068661913383</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.08286448375</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>532.0824356801729</v>
+        <v>132.5722416498159</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8538,16 +8538,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>151.5659933015362</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8772,22 +8772,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,7 +9012,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9021,10 +9021,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9480,7 +9480,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,13 +9489,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>298.485290672186</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>187.5973797276333</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684342</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10601,7 +10601,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10665,13 +10665,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10902,13 +10902,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10917,7 +10917,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11148,10 +11148,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>44.48829725947981</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.603032301091332</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>56.64177929133083</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.88563815156621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>156.2907529189184</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>95.96652048091667</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>21.41553794108382</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>56.64177929133062</v>
       </c>
     </row>
     <row r="17">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>909073.261107825</v>
+        <v>907870.1658803043</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>909073.261107825</v>
+        <v>907870.1658803043</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816540.4844057495</v>
+        <v>816540.4844057496</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396730.7918053848</v>
+        <v>396730.7918053849</v>
       </c>
       <c r="C2" t="n">
         <v>396730.7918053849</v>
@@ -26323,16 +26323,16 @@
         <v>350589.8515336814</v>
       </c>
       <c r="F2" t="n">
-        <v>350589.8515336813</v>
+        <v>350589.8515336814</v>
       </c>
       <c r="G2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="H2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.7918053848</v>
       </c>
       <c r="I2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.791805385</v>
       </c>
       <c r="J2" t="n">
         <v>396730.7918053849</v>
@@ -26341,16 +26341,16 @@
         <v>396730.7918053848</v>
       </c>
       <c r="L2" t="n">
-        <v>396730.791805385</v>
+        <v>396730.7918053857</v>
       </c>
       <c r="M2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.7918053848</v>
       </c>
       <c r="N2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="O2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.7918053848</v>
       </c>
       <c r="P2" t="n">
         <v>396730.7918053848</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062162</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945028</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728534</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427711</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001383</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001383</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173854</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62843.36711050801</v>
+        <v>-58491.92129621294</v>
       </c>
       <c r="C6" t="n">
-        <v>119361.5811813482</v>
+        <v>115366.7357378421</v>
       </c>
       <c r="D6" t="n">
-        <v>112193.260159677</v>
+        <v>104456.9709362851</v>
       </c>
       <c r="E6" t="n">
-        <v>59579.60286743178</v>
+        <v>59369.87132074223</v>
       </c>
       <c r="F6" t="n">
-        <v>171702.1643414762</v>
+        <v>171492.4327947868</v>
       </c>
       <c r="G6" t="n">
-        <v>117675.1129692364</v>
+        <v>117675.1129692365</v>
       </c>
       <c r="H6" t="n">
         <v>165100.4385059184</v>
@@ -26543,22 +26543,22 @@
         <v>165100.4385059185</v>
       </c>
       <c r="J6" t="n">
-        <v>-47941.47909136723</v>
+        <v>-41425.19393679387</v>
       </c>
       <c r="K6" t="n">
         <v>158860.6701031354</v>
       </c>
       <c r="L6" t="n">
-        <v>103678.0811685146</v>
+        <v>99629.24395804285</v>
       </c>
       <c r="M6" t="n">
-        <v>122899.6090462954</v>
+        <v>121847.9140351072</v>
       </c>
       <c r="N6" t="n">
         <v>165100.4385059184</v>
       </c>
       <c r="O6" t="n">
-        <v>137332.7444631474</v>
+        <v>137332.7444631472</v>
       </c>
       <c r="P6" t="n">
         <v>165100.4385059184</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,19 +26707,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,10 +26817,10 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095213</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660668</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551383</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346387</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485697</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773723</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407152</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485697</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>346.2123558546684</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>216.249655829535</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.95957579094619</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>185.1777423863124</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1735410165392</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27552,7 +27552,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27588,13 +27588,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.495244038962142</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>186.1689878663302</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>22.88724493421893</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.88843374682652</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>185.1777423863123</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493826</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27822,25 +27822,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>354.1820744015266</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>105.6268993443524</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28983,19 +28983,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29223,19 +29223,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.63600263452858</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>86.65052755599578</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431643</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431643</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431732</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,22 +29533,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.2722376590126</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683159977</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833683</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861254697</v>
+        <v>76.793854550313</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30171,13 +30171,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634527813</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634528552</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,43 +30378,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.63600263452777</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30648,13 +30648,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>274.1626439528027</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>63.41616566928173</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299766809</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>446.7103228260063</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>138.4677594163715</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>155.7081677729461</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>446.7103228260063</v>
+        <v>47.20012879564926</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35258,16 +35258,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>66.19388044736954</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35492,22 +35492,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,7 +35732,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,7 +36057,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36200,7 +36200,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,13 +36209,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716073</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36519,19 +36519,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565486</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>449.2589679877754</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809041</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698315</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832971</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215727</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122755</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851016</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261597</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511621</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765109</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341231</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066584</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>102.2252668734666</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279116</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993569</v>
+        <v>159.455512237123</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220906</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528626</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380288</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.1108817260881</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37385,13 +37385,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37467,13 +37467,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565478</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873205</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905433</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37622,13 +37622,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37701,16 +37701,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133774</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37944,13 +37944,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094873</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
